--- a/analysis/K-Means Curves.xlsx
+++ b/analysis/K-Means Curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryniakolak/Code/SDOHUpdate/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFD46D0-C02D-484F-9EE4-2F09AD8AC45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56BBAED-2002-6241-B516-75B1F6CA4DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{12AC6030-D9F7-2D4F-98D7-8426CEF562DB}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{12AC6030-D9F7-2D4F-98D7-8426CEF562DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
